--- a/kep2groupoutput.xlsx
+++ b/kep2groupoutput.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>power eigenvalues</t>
+          <t>power eigenvalue</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">

--- a/kep2groupoutput.xlsx
+++ b/kep2groupoutput.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>power eigenvalue</t>
+          <t>power eigenvalues</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
